--- a/user_interface/V1_dashboard.xlsx
+++ b/user_interface/V1_dashboard.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manonjupin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univreimsfr-my.sharepoint.com/personal/carlos-edson-brumale_kpadonou_etudiant_univ-reims_fr/Documents/Documents/M2 SEP/Projet_digital_pers/Projet_digital/user_interface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687C20B7-B544-264D-826E-338039F5850A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{687C20B7-B544-264D-826E-338039F5850A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBA8C758-3614-4EC4-9889-BA7A8BE0D7B9}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{3A12EA05-A767-A841-A654-35094B17B07D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3A12EA05-A767-A841-A654-35094B17B07D}"/>
   </bookViews>
   <sheets>
     <sheet name="Jauge" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$1:$B$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$B$8:$B$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$B$1:$B$6</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Feuil1!$B$1:$B$6</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -114,6 +108,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF7F7F7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -374,13 +373,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188.5</c:v>
+                  <c:v>148.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -423,15 +422,10 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="F7F7F7"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1013,7 +1007,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{063227D8-7161-EC44-A11F-462B76345A5D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1024,7 +1018,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306560" cy="6065520"/>
+    <xdr:ext cx="9299677" cy="6073468"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -1217,7 +1211,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>A</a:t>
+            <a:pPr/>
+            <a:t>C</a:t>
           </a:fld>
           <a:endParaRPr lang="fr-FR" sz="2400">
             <a:solidFill>
@@ -1577,12 +1572,12 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1601,10 +1596,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1620,7 +1615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1628,7 +1623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1636,16 +1631,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <f>IF(D2="A",10,IF(D2="B",30,IF(D2="C",50,IF(D2="D",70,IF(D2="E",90)))))</f>
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1653,13 +1648,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <f>200-B8-B9</f>
-        <v>188.5</v>
+        <v>148.5</v>
       </c>
     </row>
   </sheetData>
